--- a/Result.xlsx
+++ b/Result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>ModelName</t>
   </si>
@@ -43,6 +43,12 @@
   </si>
   <si>
     <t>SVC</t>
+  </si>
+  <si>
+    <t>Decision Tree</t>
+  </si>
+  <si>
+    <t>RandomForest</t>
   </si>
 </sst>
 </file>
@@ -381,10 +387,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -467,6 +473,46 @@
       </c>
       <c r="F4">
         <v>0.69</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5">
+        <v>0.71</v>
+      </c>
+      <c r="C5">
+        <v>0.12</v>
+      </c>
+      <c r="D5">
+        <v>0.72</v>
+      </c>
+      <c r="E5">
+        <v>0.59</v>
+      </c>
+      <c r="F5">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6">
+        <v>0.75</v>
+      </c>
+      <c r="C6">
+        <v>0.08</v>
+      </c>
+      <c r="D6">
+        <v>0.81</v>
+      </c>
+      <c r="E6">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="F6">
+        <v>0.66</v>
       </c>
     </row>
   </sheetData>

--- a/Result.xlsx
+++ b/Result.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>ModelName</t>
   </si>
@@ -49,6 +49,9 @@
   </si>
   <si>
     <t>RandomForest</t>
+  </si>
+  <si>
+    <t>KNN</t>
   </si>
 </sst>
 </file>
@@ -387,10 +390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F6" sqref="F6"/>
+      <selection activeCell="I10" sqref="I10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -513,6 +516,26 @@
       </c>
       <c r="F6">
         <v>0.66</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7">
+        <v>0.66</v>
+      </c>
+      <c r="C7">
+        <v>0.13</v>
+      </c>
+      <c r="D7">
+        <v>0.64</v>
+      </c>
+      <c r="E7">
+        <v>0.64</v>
+      </c>
+      <c r="F7">
+        <v>0.64</v>
       </c>
     </row>
   </sheetData>
